--- a/ExcelFiles/MedicalCertificate.xlsx
+++ b/ExcelFiles/MedicalCertificate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4ClinicalAuto2\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0419B7C-FFDB-4311-A7FA-8B82B942EFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0233D3F1-1FEB-4F26-8FBC-902AF37B429D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="145">
   <si>
     <t>username</t>
   </si>
@@ -308,18 +308,9 @@
     <t>patmcsn_reason</t>
   </si>
   <si>
-    <t>28/09/1994</t>
-  </si>
-  <si>
     <t>href05Reco005</t>
   </si>
   <si>
-    <t>Omega</t>
-  </si>
-  <si>
-    <t>Riomedtest</t>
-  </si>
-  <si>
     <t>certre_code_type</t>
   </si>
   <si>
@@ -477,6 +468,18 @@
   </si>
   <si>
     <t>30-07-2025</t>
+  </si>
+  <si>
+    <t>release.manoj</t>
+  </si>
+  <si>
+    <t>Manoj@2025</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Certificate</t>
   </si>
 </sst>
 </file>
@@ -530,9 +533,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -541,6 +541,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -822,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,24 +847,33 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{51AF5E41-0C3F-41C6-9237-5C9DD660AF51}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{C8C5CAD9-E135-4647-9C8F-968CBA0E1C63}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{51AF5E41-0C3F-41C6-9237-5C9DD660AF51}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C8C5CAD9-E135-4647-9C8F-968CBA0E1C63}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{55EC3C8B-B5C7-49B2-8585-9CA4FBFC21E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -888,25 +900,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
         <v>86</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -916,20 +928,20 @@
       <c r="B2">
         <v>34803</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>129</v>
+      <c r="C2" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -939,20 +951,20 @@
       <c r="B3">
         <v>34803</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>129</v>
+      <c r="C3" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
         <v>116</v>
       </c>
-      <c r="E3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>119</v>
-      </c>
-      <c r="G3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -962,20 +974,20 @@
       <c r="B4">
         <v>34803</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>129</v>
+      <c r="C4" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" t="s">
         <v>117</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>120</v>
-      </c>
-      <c r="G4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -985,20 +997,20 @@
       <c r="B5">
         <v>34803</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>129</v>
+      <c r="C5" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1010,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AC4204-8ACE-4862-BC4B-50AE1C5531A5}">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,22 +1179,22 @@
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>87</v>
+      <c r="I2" s="8">
+        <v>36526</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>55</v>
@@ -1226,7 +1238,7 @@
       <c r="Z2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="4" t="s">
         <v>66</v>
       </c>
       <c r="AI2" s="3" t="s">
@@ -1264,7 +1276,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,19 +1298,19 @@
         <v>73</v>
       </c>
       <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" t="s">
-        <v>99</v>
-      </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H1" t="s">
         <v>75</v>
@@ -1310,28 +1322,28 @@
         <v>81</v>
       </c>
       <c r="K1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
         <v>86</v>
       </c>
       <c r="M1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" t="s">
         <v>101</v>
       </c>
-      <c r="N1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" t="s">
-        <v>104</v>
-      </c>
       <c r="P1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1342,7 +1354,7 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>72</v>
@@ -1351,10 +1363,10 @@
         <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>76</v>
@@ -1366,28 +1378,28 @@
         <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" t="s">
         <v>131</v>
       </c>
-      <c r="P2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>134</v>
-      </c>
       <c r="R2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1433,19 +1445,19 @@
         <v>73</v>
       </c>
       <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" t="s">
-        <v>99</v>
-      </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H1" t="s">
         <v>75</v>
@@ -1457,28 +1469,28 @@
         <v>81</v>
       </c>
       <c r="K1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
         <v>86</v>
       </c>
       <c r="M1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" t="s">
         <v>101</v>
       </c>
-      <c r="N1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" t="s">
-        <v>104</v>
-      </c>
       <c r="P1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1489,7 +1501,7 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>72</v>
@@ -1498,10 +1510,10 @@
         <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>76</v>
@@ -1513,28 +1525,28 @@
         <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>131</v>
+        <v>91</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1579,19 +1591,19 @@
         <v>73</v>
       </c>
       <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" t="s">
-        <v>99</v>
-      </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H1" t="s">
         <v>75</v>
@@ -1603,28 +1615,28 @@
         <v>81</v>
       </c>
       <c r="K1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
         <v>86</v>
       </c>
       <c r="M1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" t="s">
         <v>101</v>
       </c>
-      <c r="N1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" t="s">
-        <v>104</v>
-      </c>
       <c r="P1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1635,7 +1647,7 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>72</v>
@@ -1644,10 +1656,10 @@
         <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>76</v>
@@ -1659,28 +1671,28 @@
         <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>131</v>
+        <v>91</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1702,7 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EA1B80-280E-4D26-AF18-E86A7C091F1D}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1717,7 +1729,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
         <v>83</v>
@@ -1734,19 +1746,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>143</v>
+      <c r="C2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1773,7 +1785,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
         <v>83</v>
@@ -1790,19 +1802,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>141</v>
+      <c r="C2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1829,7 +1841,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
         <v>83</v>
@@ -1841,24 +1853,24 @@
         <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>141</v>
+      <c r="C2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1889,31 +1901,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" t="s">
-        <v>110</v>
-      </c>
       <c r="G1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1921,28 +1933,28 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
         <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1951,12 +1963,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2215,20 +2229,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E45471CC-9AFA-4147-A50A-01BCBC520F94}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
+    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2253,12 +2268,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E45471CC-9AFA-4147-A50A-01BCBC520F94}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
-    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExcelFiles/MedicalCertificate.xlsx
+++ b/ExcelFiles/MedicalCertificate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0233D3F1-1FEB-4F26-8FBC-902AF37B429D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EDD9E0-99BF-4499-BA02-5C7F26996094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="2175" windowWidth="20265" windowHeight="9270" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -467,9 +467,6 @@
     <t>01-04-2025</t>
   </si>
   <si>
-    <t>30-07-2025</t>
-  </si>
-  <si>
     <t>release.manoj</t>
   </si>
   <si>
@@ -480,6 +477,9 @@
   </si>
   <si>
     <t>Certificate</t>
+  </si>
+  <si>
+    <t>30-08-2025</t>
   </si>
 </sst>
 </file>
@@ -847,10 +847,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AC4204-8ACE-4862-BC4B-50AE1C5531A5}">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1185,10 +1185,10 @@
         <v>53</v>
       </c>
       <c r="F2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>54</v>
@@ -1715,7 +1715,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,7 +1755,7 @@
         <v>139</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
         <v>136</v>
@@ -1882,7 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AC1D6B-224B-4783-A36E-A1F1F63C8E2F}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1963,14 +1963,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2229,21 +2227,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E45471CC-9AFA-4147-A50A-01BCBC520F94}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
-    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2268,9 +2265,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E45471CC-9AFA-4147-A50A-01BCBC520F94}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
+    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExcelFiles/MedicalCertificate.xlsx
+++ b/ExcelFiles/MedicalCertificate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EDD9E0-99BF-4499-BA02-5C7F26996094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D77CC-AAAC-4DD8-ABCA-5C7938F74F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="2175" windowWidth="20265" windowHeight="9270" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
     <t>Certificate</t>
   </si>
   <si>
-    <t>30-08-2025</t>
+    <t>30-09-2025</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EA1B80-280E-4D26-AF18-E86A7C091F1D}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1882,7 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AC1D6B-224B-4783-A36E-A1F1F63C8E2F}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1972,6 +1972,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -2226,17 +2237,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
   <ds:schemaRefs>
@@ -2246,6 +2246,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E45471CC-9AFA-4147-A50A-01BCBC520F94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
+    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FCB7D6A-E6F4-49F1-91EA-99C5773FBF86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2262,15 +2273,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E45471CC-9AFA-4147-A50A-01BCBC520F94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
-    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ExcelFiles/MedicalCertificate.xlsx
+++ b/ExcelFiles/MedicalCertificate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D77CC-AAAC-4DD8-ABCA-5C7938F74F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838057CE-F9D5-47D4-AF68-B377981DE630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -422,9 +422,6 @@
     <t>limitation</t>
   </si>
   <si>
-    <t>02-09-2024</t>
-  </si>
-  <si>
     <t>788310</t>
   </si>
   <si>
@@ -461,12 +458,6 @@
     <t>Delete Medical certificate</t>
   </si>
   <si>
-    <t>28-03-2025</t>
-  </si>
-  <si>
-    <t>01-04-2025</t>
-  </si>
-  <si>
     <t>release.manoj</t>
   </si>
   <si>
@@ -479,7 +470,16 @@
     <t>Certificate</t>
   </si>
   <si>
-    <t>30-09-2025</t>
+    <t>30-09-2026</t>
+  </si>
+  <si>
+    <t>01-07-2025</t>
+  </si>
+  <si>
+    <t>28-03-2026</t>
+  </si>
+  <si>
+    <t>02-09-2025</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -847,10 +847,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -929,7 +929,7 @@
         <v>34803</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>113</v>
@@ -952,7 +952,7 @@
         <v>34803</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>113</v>
@@ -975,7 +975,7 @@
         <v>34803</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>113</v>
@@ -998,7 +998,7 @@
         <v>34803</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>113</v>
@@ -1185,10 +1185,10 @@
         <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>54</v>
@@ -1390,13 +1390,13 @@
         <v>91</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P2" t="s">
         <v>103</v>
       </c>
       <c r="Q2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R2" t="s">
         <v>92</v>
@@ -1510,7 +1510,7 @@
         <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
         <v>89</v>
@@ -1537,13 +1537,13 @@
         <v>91</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P2" t="s">
         <v>103</v>
       </c>
       <c r="Q2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R2" t="s">
         <v>92</v>
@@ -1656,7 +1656,7 @@
         <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
         <v>89</v>
@@ -1683,13 +1683,13 @@
         <v>91</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R2" t="s">
         <v>92</v>
@@ -1714,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EA1B80-280E-4D26-AF18-E86A7C091F1D}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,13 +1752,13 @@
         <v>80</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1771,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,13 +1808,13 @@
         <v>80</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" t="s">
         <v>129</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1827,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,7 +1853,7 @@
         <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1864,13 +1864,13 @@
         <v>80</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1954,7 @@
         <v>103</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1963,15 +1963,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
@@ -1980,6 +1971,15 @@
     <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2238,20 +2238,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E45471CC-9AFA-4147-A50A-01BCBC520F94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
     <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD4E55A-6C67-4895-94E6-14C6B175BE34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
